--- a/medicine/Enfance/Le_Voleur_de_magie/Le_Voleur_de_magie.xlsx
+++ b/medicine/Enfance/Le_Voleur_de_magie/Le_Voleur_de_magie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Voleur de magie (titre original : The Magic Thief) est une série de livres destinée à la jeunesse qui comporte actuellement trois tomes. Cette série est écrite par Sarah Prineas (en), illustrée par Antonio Javier Caparo et traduite en français par Jean Esch.
@@ -512,7 +524,9 @@
           <t>Trilogie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le Voleur de magie : Livre 1, Gallimard Jeunesse, 2009 ((en) The Magic Thief, 2008), trad. Jean Esch  (ISBN 978-2-07-061825-5)
 Le Voleur de magie : Livre 2, Gallimard Jeunesse, 2010 ((en) The Magic Thief-Lost, 2009), trad. Jean Esch  (ISBN 978-2-07-061826-2)
@@ -544,7 +558,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les gentils
 Connwear (personnage principal) est l'apprenti de Nihil Fugacious, il sauve Welmett des voleurs de magie dans le livre 1.
@@ -582,7 +598,9 @@
           <t>Lieux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Welmett : Ville où se déroule l'histoire, elle a absolument besoin d'un certain niveau de magie pour fonctionner normalement.
 Ataraxie : L'ancestrale demeure de Nihil, c'est là qu'il recueille Connwear.
@@ -616,7 +634,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel
  Portail de la littérature américaine   Portail de la littérature d’enfance et de jeunesse   Portail de la fantasy et du fantastique                   </t>
